--- a/lib/templates/cryo_seed_template.xlsx
+++ b/lib/templates/cryo_seed_template.xlsx
@@ -20,7 +20,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+  <si>
+    <t xml:space="preserve">Seed Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seed Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accession number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection_rep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crop name</t>
+  </si>
   <si>
     <t xml:space="preserve">Family</t>
   </si>
@@ -31,7 +49,16 @@
     <t xml:space="preserve">Species</t>
   </si>
   <si>
-    <t xml:space="preserve">Sub texa</t>
+    <t xml:space="preserve">Sub_texa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local variety name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample status </t>
   </si>
   <si>
     <t xml:space="preserve">Material type</t>
@@ -40,37 +67,34 @@
     <t xml:space="preserve">Classification</t>
   </si>
   <si>
-    <t xml:space="preserve">Resistant </t>
+    <t xml:space="preserve">Resistant</t>
   </si>
   <si>
     <t xml:space="preserve">Susceptible</t>
   </si>
   <si>
-    <t xml:space="preserve">Crop name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires Multiplication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donor Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donor name* </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House number* </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dzongkhag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gewog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Village </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dungkhag</t>
+    <t xml:space="preserve">Donor_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donor name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Village name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dungkhag name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gewog name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dzongkhag name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altitude</t>
   </si>
   <si>
     <t xml:space="preserve">Latitude</t>
@@ -79,7 +103,7 @@
     <t xml:space="preserve">Longitude</t>
   </si>
   <si>
-    <t xml:space="preserve">Altitude</t>
+    <t xml:space="preserve">Topography</t>
   </si>
   <si>
     <t xml:space="preserve">Soil color</t>
@@ -88,52 +112,115 @@
     <t xml:space="preserve">Soil texture</t>
   </si>
   <si>
-    <t xml:space="preserve">Topography</t>
+    <t xml:space="preserve">Collection date</t>
   </si>
   <si>
     <t xml:space="preserve">Mission number</t>
   </si>
   <si>
-    <t xml:space="preserve">Collection number* </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collection Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collectors name </t>
+    <t xml:space="preserve">Collection number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection source</t>
   </si>
   <si>
     <t xml:space="preserve">Collection note</t>
   </si>
   <si>
-    <t xml:space="preserve">Collection date</t>
+    <t xml:space="preserve">Cultivation practice</t>
   </si>
   <si>
     <t xml:space="preserve">Nursery month</t>
   </si>
   <si>
-    <t xml:space="preserve">Planting month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harvesting month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cultivation Practice</t>
+    <t xml:space="preserve">Plant season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harvest season</t>
   </si>
   <si>
     <t xml:space="preserve">Crop system</t>
   </si>
   <si>
-    <t xml:space="preserve">Characteristics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local variety name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample status</t>
+    <t xml:space="preserve">Germination rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germination date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moisture content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moisture test date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test seed stored date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test details remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packaging Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germination  weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germination packets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regeneration weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regeneration packets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest packets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base location 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base location 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active collection  weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active collection packets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active collection location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characterization weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characterization packets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characterization location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicate weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicate packets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicate location 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicate location 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer Date</t>
   </si>
 </sst>
 </file>
@@ -143,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -164,6 +251,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -213,8 +306,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -234,188 +327,230 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:BU1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="16.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="13.89"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
-      <c r="L3" s="0"/>
-      <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
-      <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
-      <c r="Q3" s="0"/>
-      <c r="R3" s="0"/>
-      <c r="S3" s="0"/>
-      <c r="T3" s="0"/>
-      <c r="U3" s="0"/>
-      <c r="V3" s="0"/>
-      <c r="W3" s="0"/>
-      <c r="X3" s="0"/>
-      <c r="Y3" s="0"/>
-      <c r="Z3" s="0"/>
-      <c r="AA3" s="0"/>
-      <c r="AB3" s="0"/>
-      <c r="AC3" s="0"/>
-      <c r="AD3" s="0"/>
-      <c r="AE3" s="0"/>
-      <c r="AF3" s="0"/>
-      <c r="AG3" s="0"/>
-      <c r="AH3" s="0"/>
-      <c r="AI3" s="0"/>
-      <c r="AJ3" s="0"/>
-      <c r="AK3" s="0"/>
-      <c r="AL3" s="0"/>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1"/>
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BT1" s="1"/>
+      <c r="BU1" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
